--- a/Usablity.xlsx
+++ b/Usablity.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="102">
   <si>
     <t>Юзабилити moodle.volgatech.net</t>
   </si>
@@ -147,9 +147,6 @@
     <t>1. Перейти к форме на вход (нажать вход)</t>
   </si>
   <si>
-    <t>Логинация на тот же профиль без формы на вход</t>
-  </si>
-  <si>
     <t>http://testingcourse.ru/redmine/issues/72</t>
   </si>
   <si>
@@ -199,6 +196,132 @@
   </si>
   <si>
     <t>Ткнуть можно только на пару,вследствие чего, если есть свободные временные блоки в текущей паре, записаться туда можно только при подаче заявки на другую дату с изменением даты начала и даты конца</t>
+  </si>
+  <si>
+    <t>Поиск информации по учебным планам</t>
+  </si>
+  <si>
+    <t>1. Зайти на главную</t>
+  </si>
+  <si>
+    <t>2. Перейти  по легкообнаруживаемой  ссылке с учебными планами</t>
+  </si>
+  <si>
+    <t>3. Найти определенный факультет с определенной специальностью</t>
+  </si>
+  <si>
+    <t>Ссылка легко обнаруживается пользователем</t>
+  </si>
+  <si>
+    <t>Ссылка отображается в самом верху, но неочевидно названа (УМКд, ЭРПд). И непонятно, в чем разница между УМКд и ЭРПд</t>
+  </si>
+  <si>
+    <t>Отображается дерево с факультетами и специальностями</t>
+  </si>
+  <si>
+    <t>Возможность воспользоваться поиском</t>
+  </si>
+  <si>
+    <t>Нет поиска</t>
+  </si>
+  <si>
+    <t>4. Отображение информаци</t>
+  </si>
+  <si>
+    <t>Возможность скачать</t>
+  </si>
+  <si>
+    <t>Не все браузеры отображают pdf</t>
+  </si>
+  <si>
+    <t>Возможность просмотра без скачивания</t>
+  </si>
+  <si>
+    <t>Отчет об ошибке</t>
+  </si>
+  <si>
+    <t>1. Перейти в отчет об ошибке</t>
+  </si>
+  <si>
+    <t>Легкодоступная всюду ссылка на отчет об ошибке</t>
+  </si>
+  <si>
+    <t>Автоматическая вставка ссылки той страницы, с которой был осуществлен переход</t>
+  </si>
+  <si>
+    <t>2. Добавить описание</t>
+  </si>
+  <si>
+    <t>Есть возможность добавить текст и все необходимы для раскрытия проблемы ресурсы (картинки, видео, ссылки и т. д.)</t>
+  </si>
+  <si>
+    <t>3. Перейти на страницу со своими отчетами</t>
+  </si>
+  <si>
+    <t>4. Удалить отчет</t>
+  </si>
+  <si>
+    <t>Возможность удалить уже отправленный отчет</t>
+  </si>
+  <si>
+    <t>Просмотр ведомости оценок по курсу</t>
+  </si>
+  <si>
+    <t>1. Перейти на страницу "Мои курсы"</t>
+  </si>
+  <si>
+    <t>Легкодоступная кнопка перехода</t>
+  </si>
+  <si>
+    <t>2. Найти информацию об оценках</t>
+  </si>
+  <si>
+    <t>Легкодоступные кнопки, так как ведение и участие в электронных курсах является одной из важнейших функций портала</t>
+  </si>
+  <si>
+    <t>3. Прозрачное ведение оценок</t>
+  </si>
+  <si>
+    <t>Отображение итоговой оценки</t>
+  </si>
+  <si>
+    <t>Отображение коэффициентов за каждый вид работ</t>
+  </si>
+  <si>
+    <t>Не оценки в категории "Дополнительные оценки" вносят свою лепту в итоговую, но коэффициент нигде не отображены</t>
+  </si>
+  <si>
+    <t>Отображена маленькая кнопка слева не сверху</t>
+  </si>
+  <si>
+    <t>Логинация на тот же профиль без формы на вход. Для входа на жругой профиль необходимо выйти из текущего и закрытьтекущую сессию в браузере</t>
+  </si>
+  <si>
+    <t>Слайдер на главной</t>
+  </si>
+  <si>
+    <t>2. Пролистать слайдер</t>
+  </si>
+  <si>
+    <t>Отображение слайдера</t>
+  </si>
+  <si>
+    <t>Слайдер листается автоматически через какое-то время</t>
+  </si>
+  <si>
+    <t>Возможность листать страницы самостоятельно</t>
+  </si>
+  <si>
+    <t>3. Увидеть на слайдере какую-то информацию</t>
+  </si>
+  <si>
+    <t>Так как не все будут листать слайдер или ждать следующего слайда</t>
+  </si>
+  <si>
+    <t>Информация привлекает и не очень важна</t>
+  </si>
+  <si>
+    <t>Информация не привлекает, здесь не привлекающие есть ссылки на информацию для студента, для преподавателя. Кроме того, информация дублируется</t>
   </si>
 </sst>
 </file>
@@ -384,11 +507,8 @@
     <xf numFmtId="0" fontId="7" fillId="2" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -406,6 +526,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="3" xfId="4" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -428,8 +551,17 @@
     <xf numFmtId="0" fontId="9" fillId="2" borderId="3" xfId="6" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="5" borderId="3" xfId="5" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="8">
@@ -534,6 +666,138 @@
         <a:xfrm>
           <a:off x="9753600" y="3048000"/>
           <a:ext cx="1571625" cy="2257190"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>2352674</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>380999</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>2384992</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>390524</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="Рисунок 5"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9753599" y="8381999"/>
+          <a:ext cx="2384993" cy="390525"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1180829</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>723900</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="Рисунок 6"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9753601" y="13716001"/>
+          <a:ext cx="1180828" cy="723899"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1181100</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>2409825</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>894883</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="Рисунок 7"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10934700" y="13716000"/>
+          <a:ext cx="1228725" cy="894883"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -832,24 +1096,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R13"/>
+  <dimension ref="A1:R32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+    <sheetView tabSelected="1" topLeftCell="A27" workbookViewId="0">
+      <selection activeCell="B32" sqref="B32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="32" style="2" customWidth="1"/>
-    <col min="2" max="2" width="40.42578125" style="2" customWidth="1"/>
-    <col min="3" max="3" width="38.5703125" style="2" customWidth="1"/>
-    <col min="4" max="4" width="35.28515625" style="2" customWidth="1"/>
-    <col min="5" max="5" width="30" style="2" customWidth="1"/>
-    <col min="6" max="18" width="9.140625" style="2"/>
+    <col min="1" max="1" width="32" style="1" customWidth="1"/>
+    <col min="2" max="2" width="40.42578125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="38.5703125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="35.28515625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="37" style="1" customWidth="1"/>
+    <col min="6" max="18" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:18" ht="30" x14ac:dyDescent="0.25">
+      <c r="A1" s="17" t="s">
         <v>0</v>
       </c>
     </row>
@@ -874,170 +1138,446 @@
       <c r="A4" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="3" t="s">
         <v>42</v>
       </c>
       <c r="C4" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="D4" s="3" t="s">
         <v>40</v>
       </c>
       <c r="E4" s="11" t="s">
-        <v>44</v>
-      </c>
-      <c r="F4" s="4"/>
-      <c r="G4" s="4"/>
-      <c r="H4" s="4"/>
-      <c r="I4" s="4"/>
-      <c r="J4" s="4"/>
-      <c r="K4" s="4"/>
-      <c r="L4" s="4"/>
-      <c r="M4" s="4"/>
-      <c r="N4" s="4"/>
-      <c r="O4" s="4"/>
-      <c r="P4" s="4"/>
-      <c r="Q4" s="4"/>
-      <c r="R4" s="4"/>
+        <v>43</v>
+      </c>
+      <c r="F4" s="3"/>
+      <c r="G4" s="3"/>
+      <c r="H4" s="3"/>
+      <c r="I4" s="3"/>
+      <c r="J4" s="3"/>
+      <c r="K4" s="3"/>
+      <c r="L4" s="3"/>
+      <c r="M4" s="3"/>
+      <c r="N4" s="3"/>
+      <c r="O4" s="3"/>
+      <c r="P4" s="3"/>
+      <c r="Q4" s="3"/>
+      <c r="R4" s="3"/>
     </row>
     <row r="5" spans="1:18" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="13"/>
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="1" t="s">
         <v>36</v>
       </c>
       <c r="C5" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="D5" s="4" t="s">
+      <c r="D5" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="E5" s="7"/>
+      <c r="E5" s="6"/>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A6" s="13"/>
-      <c r="B6" s="2" t="s">
+      <c r="B6" s="1" t="s">
         <v>37</v>
       </c>
       <c r="C6" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="D6" s="4" t="s">
+      <c r="D6" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="E6" s="7"/>
-    </row>
-    <row r="7" spans="1:18" ht="30" x14ac:dyDescent="0.25">
+      <c r="E6" s="6"/>
+    </row>
+    <row r="7" spans="1:18" ht="75" x14ac:dyDescent="0.25">
       <c r="A7" s="13"/>
-      <c r="B7" s="4" t="s">
+      <c r="B7" s="3" t="s">
         <v>42</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="D7" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="D7" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="E7" s="7"/>
+      <c r="E7" s="6"/>
     </row>
     <row r="8" spans="1:18" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" s="13"/>
-      <c r="B8" s="2" t="s">
+      <c r="B8" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="C8" s="15"/>
-      <c r="D8" s="4" t="s">
+      <c r="C8" s="16"/>
+      <c r="D8" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="E8" s="7"/>
-      <c r="F8" s="4"/>
-      <c r="G8" s="4"/>
-      <c r="H8" s="4"/>
-      <c r="I8" s="4"/>
-      <c r="J8" s="4"/>
-      <c r="K8" s="4"/>
-      <c r="L8" s="4"/>
-      <c r="M8" s="4"/>
-      <c r="N8" s="4"/>
-      <c r="O8" s="4"/>
-      <c r="P8" s="4"/>
-      <c r="Q8" s="4"/>
-      <c r="R8" s="4"/>
+      <c r="E8" s="6"/>
+      <c r="F8" s="3"/>
+      <c r="G8" s="3"/>
+      <c r="H8" s="3"/>
+      <c r="I8" s="3"/>
+      <c r="J8" s="3"/>
+      <c r="K8" s="3"/>
+      <c r="L8" s="3"/>
+      <c r="M8" s="3"/>
+      <c r="N8" s="3"/>
+      <c r="O8" s="3"/>
+      <c r="P8" s="3"/>
+      <c r="Q8" s="3"/>
+      <c r="R8" s="3"/>
     </row>
     <row r="9" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="13" t="s">
-        <v>50</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>45</v>
+        <v>49</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>44</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="D9" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="E9" s="7"/>
+        <v>46</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="E9" s="6"/>
     </row>
     <row r="10" spans="1:18" ht="45" x14ac:dyDescent="0.25">
       <c r="A10" s="13"/>
-      <c r="B10" s="2" t="s">
-        <v>46</v>
+      <c r="B10" s="1" t="s">
+        <v>45</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>49</v>
-      </c>
-      <c r="D10" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="E10" s="7"/>
+      <c r="D10" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="E10" s="6"/>
     </row>
     <row r="11" spans="1:18" ht="45" x14ac:dyDescent="0.25">
       <c r="A11" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="B11" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="B11" s="2" t="s">
-        <v>52</v>
-      </c>
       <c r="C11" s="10" t="s">
-        <v>56</v>
-      </c>
-      <c r="D11" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="E11" s="7"/>
+      <c r="D11" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="E11" s="6"/>
     </row>
     <row r="12" spans="1:18" ht="30" x14ac:dyDescent="0.25">
       <c r="A12" s="13"/>
-      <c r="B12" s="2" t="s">
-        <v>53</v>
+      <c r="B12" s="1" t="s">
+        <v>52</v>
       </c>
       <c r="C12" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="D12" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="D12" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="E12" s="7"/>
+      <c r="E12" s="6"/>
     </row>
     <row r="13" spans="1:18" ht="105" x14ac:dyDescent="0.25">
       <c r="A13" s="13"/>
-      <c r="B13" s="2" t="s">
-        <v>54</v>
+      <c r="B13" s="1" t="s">
+        <v>53</v>
       </c>
       <c r="C13" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="E13" s="6"/>
+    </row>
+    <row r="14" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="13" t="s">
         <v>60</v>
       </c>
-      <c r="D13" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="E13" s="7"/>
+      <c r="B14" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C14" s="8"/>
+      <c r="E14" s="7"/>
+    </row>
+    <row r="15" spans="1:18" ht="60" x14ac:dyDescent="0.25">
+      <c r="A15" s="13"/>
+      <c r="B15" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C15" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="E15" s="7"/>
+    </row>
+    <row r="16" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="13"/>
+      <c r="B16" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="C16" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="E16" s="7"/>
+    </row>
+    <row r="17" spans="1:18" ht="30" x14ac:dyDescent="0.25">
+      <c r="A17" s="13"/>
+      <c r="B17" s="6"/>
+      <c r="C17" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="E17" s="7"/>
+      <c r="F17" s="3"/>
+      <c r="G17" s="3"/>
+      <c r="H17" s="3"/>
+      <c r="I17" s="3"/>
+      <c r="J17" s="3"/>
+      <c r="K17" s="3"/>
+      <c r="L17" s="3"/>
+      <c r="M17" s="3"/>
+      <c r="N17" s="3"/>
+      <c r="O17" s="3"/>
+      <c r="P17" s="3"/>
+      <c r="Q17" s="3"/>
+      <c r="R17" s="3"/>
+    </row>
+    <row r="18" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A18" s="13"/>
+      <c r="B18" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="C18" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="E18" s="7"/>
+      <c r="F18" s="3"/>
+      <c r="G18" s="3"/>
+      <c r="H18" s="3"/>
+      <c r="I18" s="3"/>
+      <c r="J18" s="3"/>
+      <c r="K18" s="3"/>
+      <c r="L18" s="3"/>
+      <c r="M18" s="3"/>
+      <c r="N18" s="3"/>
+      <c r="O18" s="3"/>
+      <c r="P18" s="3"/>
+      <c r="Q18" s="3"/>
+      <c r="R18" s="3"/>
+    </row>
+    <row r="19" spans="1:18" ht="30" x14ac:dyDescent="0.25">
+      <c r="A19" s="13"/>
+      <c r="B19" s="6"/>
+      <c r="C19" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="E19" s="3"/>
+    </row>
+    <row r="20" spans="1:18" ht="30" x14ac:dyDescent="0.25">
+      <c r="A20" s="13" t="s">
+        <v>73</v>
+      </c>
+      <c r="B20" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="C20" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18" ht="45" x14ac:dyDescent="0.25">
+      <c r="A21" s="13"/>
+      <c r="B21" s="6"/>
+      <c r="C21" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18" ht="60" x14ac:dyDescent="0.25">
+      <c r="A22" s="13"/>
+      <c r="B22" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="C22" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18" ht="30" x14ac:dyDescent="0.25">
+      <c r="A23" s="13"/>
+      <c r="B23" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="C23" s="8"/>
+    </row>
+    <row r="24" spans="1:18" ht="30" x14ac:dyDescent="0.25">
+      <c r="A24" s="13"/>
+      <c r="B24" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="C24" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="13" t="s">
+        <v>82</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="C25" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="E25" s="6" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="26" spans="1:18" ht="30" x14ac:dyDescent="0.25">
+      <c r="A26" s="13"/>
+      <c r="B26" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="C26" s="9" t="s">
+        <v>91</v>
+      </c>
+      <c r="D26" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="E26" s="6"/>
+    </row>
+    <row r="27" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A27" s="13"/>
+      <c r="B27" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="C27" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="28" spans="1:18" ht="60" x14ac:dyDescent="0.25">
+      <c r="A28" s="13"/>
+      <c r="B28" s="6"/>
+      <c r="C28" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="29" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A29" s="15" t="s">
+        <v>93</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C29" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="D29" s="3" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="30" spans="1:18" ht="30" x14ac:dyDescent="0.25">
+      <c r="B30" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="C30" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="D30" s="3" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="31" spans="1:18" ht="30" x14ac:dyDescent="0.25">
+      <c r="A31" s="3"/>
+      <c r="B31" s="6"/>
+      <c r="C31" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="D31" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="E31" s="3"/>
+      <c r="F31" s="3"/>
+      <c r="G31" s="3"/>
+      <c r="H31" s="3"/>
+      <c r="I31" s="3"/>
+      <c r="J31" s="3"/>
+      <c r="K31" s="3"/>
+      <c r="L31" s="3"/>
+      <c r="M31" s="3"/>
+      <c r="N31" s="3"/>
+      <c r="O31" s="3"/>
+      <c r="P31" s="3"/>
+      <c r="Q31" s="3"/>
+      <c r="R31" s="3"/>
+    </row>
+    <row r="32" spans="1:18" ht="106.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B32" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="C32" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="E32" s="18" t="s">
+        <v>99</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="6">
+  <mergeCells count="15">
+    <mergeCell ref="B20:B21"/>
+    <mergeCell ref="A20:A24"/>
+    <mergeCell ref="E25:E26"/>
+    <mergeCell ref="B27:B28"/>
+    <mergeCell ref="A25:A28"/>
+    <mergeCell ref="B30:B31"/>
     <mergeCell ref="E9:E10"/>
     <mergeCell ref="A9:A10"/>
     <mergeCell ref="A11:A13"/>
     <mergeCell ref="E11:E13"/>
+    <mergeCell ref="A14:A19"/>
+    <mergeCell ref="B16:B17"/>
+    <mergeCell ref="B18:B19"/>
     <mergeCell ref="E4:E8"/>
     <mergeCell ref="A4:A8"/>
   </mergeCells>
@@ -1060,197 +1600,197 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="4" width="34.28515625" style="2" customWidth="1"/>
-    <col min="5" max="11" width="9.140625" style="2"/>
+    <col min="1" max="4" width="34.28515625" style="1" customWidth="1"/>
+    <col min="5" max="11" width="9.140625" style="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:11" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="D2" s="4" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="60" x14ac:dyDescent="0.25">
-      <c r="A3" s="7" t="s">
+      <c r="A3" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="D3" s="1" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="4" spans="1:11" ht="45" x14ac:dyDescent="0.25">
-      <c r="A4" s="7"/>
-      <c r="B4" s="7"/>
-      <c r="C4" s="2" t="s">
+      <c r="A4" s="6"/>
+      <c r="B4" s="6"/>
+      <c r="C4" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="D4" s="1" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="5" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A5" s="7" t="s">
+      <c r="A5" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="B5" s="7" t="s">
+      <c r="B5" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="C5" s="1" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="6" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A6" s="7"/>
-      <c r="B6" s="7"/>
-      <c r="C6" s="3" t="s">
+      <c r="A6" s="6"/>
+      <c r="B6" s="6"/>
+      <c r="C6" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="D6" s="3" t="s">
+      <c r="D6" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="E6" s="3"/>
-      <c r="F6" s="3"/>
-      <c r="G6" s="3"/>
-      <c r="H6" s="3"/>
-      <c r="I6" s="3"/>
-      <c r="J6" s="3"/>
-      <c r="K6" s="3"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2"/>
+      <c r="H6" s="2"/>
+      <c r="I6" s="2"/>
+      <c r="J6" s="2"/>
+      <c r="K6" s="2"/>
     </row>
     <row r="7" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A7" s="7"/>
-      <c r="B7" s="7"/>
-      <c r="C7" s="3" t="s">
+      <c r="A7" s="6"/>
+      <c r="B7" s="6"/>
+      <c r="C7" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="D7" s="4" t="s">
+      <c r="D7" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="E7" s="3"/>
-      <c r="F7" s="3"/>
-      <c r="G7" s="3"/>
-      <c r="H7" s="3"/>
-      <c r="I7" s="3"/>
-      <c r="J7" s="3"/>
-      <c r="K7" s="3"/>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2"/>
+      <c r="G7" s="2"/>
+      <c r="H7" s="2"/>
+      <c r="I7" s="2"/>
+      <c r="J7" s="2"/>
+      <c r="K7" s="2"/>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A8" s="7" t="s">
+      <c r="A8" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="B8" s="7" t="s">
+      <c r="B8" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="C8" s="2" t="s">
+      <c r="C8" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D8" s="7" t="s">
+      <c r="D8" s="6" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A9" s="7"/>
-      <c r="B9" s="7"/>
-      <c r="C9" s="3" t="s">
+      <c r="A9" s="6"/>
+      <c r="B9" s="6"/>
+      <c r="C9" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="D9" s="7"/>
-      <c r="E9" s="3"/>
-      <c r="F9" s="3"/>
-      <c r="G9" s="3"/>
-      <c r="H9" s="3"/>
-      <c r="I9" s="3"/>
-      <c r="J9" s="3"/>
-      <c r="K9" s="3"/>
+      <c r="D9" s="6"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="2"/>
+      <c r="G9" s="2"/>
+      <c r="H9" s="2"/>
+      <c r="I9" s="2"/>
+      <c r="J9" s="2"/>
+      <c r="K9" s="2"/>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A10" s="7"/>
-      <c r="B10" s="7"/>
-      <c r="C10" s="3" t="s">
+      <c r="A10" s="6"/>
+      <c r="B10" s="6"/>
+      <c r="C10" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="D10" s="7"/>
-      <c r="E10" s="3"/>
-      <c r="F10" s="3"/>
-      <c r="G10" s="3"/>
-      <c r="H10" s="3"/>
-      <c r="I10" s="3"/>
-      <c r="J10" s="3"/>
-      <c r="K10" s="3"/>
+      <c r="D10" s="6"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2"/>
+      <c r="G10" s="2"/>
+      <c r="H10" s="2"/>
+      <c r="I10" s="2"/>
+      <c r="J10" s="2"/>
+      <c r="K10" s="2"/>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A11" s="7"/>
-      <c r="B11" s="7"/>
-      <c r="C11" s="3" t="s">
+      <c r="A11" s="6"/>
+      <c r="B11" s="6"/>
+      <c r="C11" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="D11" s="3"/>
-      <c r="E11" s="3"/>
-      <c r="F11" s="3"/>
-      <c r="G11" s="3"/>
-      <c r="H11" s="3"/>
-      <c r="I11" s="3"/>
-      <c r="J11" s="3"/>
-      <c r="K11" s="3"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
+      <c r="F11" s="2"/>
+      <c r="G11" s="2"/>
+      <c r="H11" s="2"/>
+      <c r="I11" s="2"/>
+      <c r="J11" s="2"/>
+      <c r="K11" s="2"/>
     </row>
     <row r="12" spans="1:11" ht="60" x14ac:dyDescent="0.25">
-      <c r="A12" s="7"/>
-      <c r="B12" s="7"/>
-      <c r="C12" s="3" t="s">
+      <c r="A12" s="6"/>
+      <c r="B12" s="6"/>
+      <c r="C12" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="D12" s="3" t="s">
+      <c r="D12" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="E12" s="3"/>
-      <c r="F12" s="3"/>
-      <c r="G12" s="3"/>
-      <c r="H12" s="3"/>
-      <c r="I12" s="3"/>
-      <c r="J12" s="3"/>
-      <c r="K12" s="3"/>
+      <c r="E12" s="2"/>
+      <c r="F12" s="2"/>
+      <c r="G12" s="2"/>
+      <c r="H12" s="2"/>
+      <c r="I12" s="2"/>
+      <c r="J12" s="2"/>
+      <c r="K12" s="2"/>
     </row>
     <row r="13" spans="1:11" ht="61.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="7" t="s">
+      <c r="A13" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="B13" s="7" t="s">
+      <c r="B13" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="C13" s="7" t="s">
+      <c r="C13" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="D13" s="4" t="s">
+      <c r="D13" s="3" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A14" s="7"/>
-      <c r="B14" s="7"/>
-      <c r="C14" s="7"/>
-      <c r="D14" s="4" t="s">
+      <c r="A14" s="6"/>
+      <c r="B14" s="6"/>
+      <c r="C14" s="6"/>
+      <c r="D14" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="E14" s="4"/>
-      <c r="F14" s="4"/>
-      <c r="G14" s="4"/>
-      <c r="H14" s="4"/>
-      <c r="I14" s="4"/>
-      <c r="J14" s="4"/>
-      <c r="K14" s="4"/>
+      <c r="E14" s="3"/>
+      <c r="F14" s="3"/>
+      <c r="G14" s="3"/>
+      <c r="H14" s="3"/>
+      <c r="I14" s="3"/>
+      <c r="J14" s="3"/>
+      <c r="K14" s="3"/>
     </row>
     <row r="15" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
